--- a/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_REC10.xlsx
+++ b/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_REC10.xlsx
@@ -390,9 +390,6 @@
     <t>Área:</t>
   </si>
   <si>
-    <t>CN_08_01_REC10</t>
-  </si>
-  <si>
     <t>CN_08_02_REC10_IMG01</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>Joven científico mirando plantas en un campo</t>
+  </si>
+  <si>
+    <t>CN_08_06_CO_REC10</t>
   </si>
 </sst>
 </file>
@@ -2396,9 +2396,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2456,7 +2456,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
       <c r="L2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
@@ -2487,7 +2487,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
       <c r="L3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M3" s="2" t="str">
         <f ca="1">IF($N3&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N3,1,1,1),"")</f>
@@ -2507,7 +2507,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -2548,7 +2548,7 @@
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
@@ -2596,7 +2596,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2699,14 +2699,14 @@
         <v>Recurso F6</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG01.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG01.jpg</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2721,7 +2721,7 @@
         <v/>
       </c>
       <c r="J10" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2742,14 +2742,14 @@
         <v>Recurso F6</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG02n.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG02n.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2757,14 +2757,14 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC10_IMG02a.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG02a.jpg</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -2785,14 +2785,14 @@
         <v>Recurso F6</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG03n.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG03n.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2800,14 +2800,14 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG03a.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG03a.jpg</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -2828,14 +2828,14 @@
         <v>Recurso F6</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG04.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG04.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2850,7 +2850,7 @@
         <v/>
       </c>
       <c r="J13" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -2871,14 +2871,14 @@
         <v>Recurso F6</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG05n.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2886,14 +2886,14 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG05a.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -2914,14 +2914,14 @@
         <v>Recurso F6</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG06n.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2929,14 +2929,14 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG06a.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
@@ -2957,14 +2957,14 @@
         <v>Recurso F6</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG07n.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG07n.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2972,14 +2972,14 @@
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG07a.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG07a.jpg</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
@@ -3000,14 +3000,14 @@
         <v>Recurso F6</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG08n.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3015,14 +3015,14 @@
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG08a.jpg</v>
+        <v>CN_08_06_CO_REC10_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
@@ -6684,7 +6684,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="108" t="s">
         <v>63</v>
@@ -6726,7 +6726,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>70</v>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="40"/>
     </row>
@@ -6751,7 +6751,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>74</v>
@@ -6769,10 +6769,10 @@
         <v>76</v>
       </c>
       <c r="H4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6780,7 +6780,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>78</v>
@@ -6798,10 +6798,10 @@
         <v>76</v>
       </c>
       <c r="H5" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6809,7 +6809,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>79</v>
@@ -6827,10 +6827,10 @@
         <v>76</v>
       </c>
       <c r="H6" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -6863,7 +6863,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>81</v>
@@ -6881,10 +6881,10 @@
         <v>76</v>
       </c>
       <c r="H8" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>83</v>
@@ -6910,10 +6910,10 @@
         <v>76</v>
       </c>
       <c r="H9" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6921,7 +6921,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>85</v>
@@ -6939,10 +6939,10 @@
         <v>76</v>
       </c>
       <c r="H10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6950,7 +6950,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>87</v>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="42"/>
     </row>
@@ -6975,7 +6975,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="73" t="s">
         <v>90</v>
@@ -6993,10 +6993,10 @@
         <v>76</v>
       </c>
       <c r="H12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7004,7 +7004,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>92</v>
@@ -7022,10 +7022,10 @@
         <v>76</v>
       </c>
       <c r="H13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="77" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="G15" s="75"/>
       <c r="H15" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" s="75"/>
       <c r="J15" s="77" t="s">
@@ -7096,10 +7096,10 @@
         <v>116</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="47" t="s">
         <v>102</v>
@@ -7118,10 +7118,10 @@
         <v>72</v>
       </c>
       <c r="F17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>104</v>
@@ -7135,13 +7135,13 @@
     </row>
     <row r="18" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>71</v>
@@ -7154,17 +7154,17 @@
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44" t="s">
@@ -7174,21 +7174,21 @@
         <v>93</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44" t="s">
@@ -7198,21 +7198,21 @@
         <v>93</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44" t="s">
@@ -7222,24 +7222,24 @@
         <v>93</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>71</v>
@@ -7248,22 +7248,22 @@
         <v>93</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>71</v>
@@ -7272,24 +7272,24 @@
         <v>93</v>
       </c>
       <c r="F23" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="44" t="s">
@@ -7299,23 +7299,23 @@
         <v>93</v>
       </c>
       <c r="F24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="46" t="s">
         <v>176</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>177</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>71</v>
@@ -7324,22 +7324,22 @@
         <v>93</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>71</v>
@@ -7348,27 +7348,27 @@
         <v>93</v>
       </c>
       <c r="F26" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H26" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>71</v>
@@ -7377,22 +7377,22 @@
         <v>93</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>71</v>
@@ -7401,22 +7401,22 @@
         <v>93</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="44" t="s">
         <v>71</v>
@@ -7425,27 +7425,27 @@
         <v>93</v>
       </c>
       <c r="F29" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H29" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>71</v>
@@ -7454,7 +7454,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -7462,13 +7462,13 @@
     </row>
     <row r="31" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
@@ -7479,10 +7479,10 @@
     </row>
     <row r="32" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44" t="s">
@@ -7507,7 +7507,7 @@
         <v>93</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -7515,13 +7515,13 @@
     </row>
     <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -7535,10 +7535,10 @@
         <v>95</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>71</v>
@@ -7547,16 +7547,16 @@
         <v>93</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H35" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7564,10 +7564,10 @@
         <v>95</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>71</v>
@@ -7576,27 +7576,27 @@
         <v>93</v>
       </c>
       <c r="F36" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="44" t="s">
-        <v>182</v>
-      </c>
       <c r="H36" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>71</v>
@@ -7605,7 +7605,7 @@
         <v>93</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
@@ -7613,13 +7613,13 @@
     </row>
     <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>71</v>
@@ -7628,7 +7628,7 @@
         <v>93</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="53" t="s">
         <v>22</v>
@@ -7660,10 +7660,10 @@
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
@@ -7674,10 +7674,10 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="56" t="s">
         <v>128</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>129</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
@@ -7688,10 +7688,10 @@
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
@@ -7702,21 +7702,21 @@
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="56" t="s">
         <v>131</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>132</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="56" t="s">
         <v>113</v>
